--- a/parseExcel/data_test.xlsx
+++ b/parseExcel/data_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongfu.su/Workspace/MyWork/Tools/parseExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E8FE54-C04D-E84E-8CEE-0DC5433FE22D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C5076F-BF55-3345-A26A-550B21EF93FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{E9869F71-83D7-0743-BFAE-11225D41E5DE}"/>
   </bookViews>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,37 +481,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack: 10, defense: 10, hp: 10, mp: 0</t>
-  </si>
-  <si>
-    <t>attack: 20, defense: 20, hp: 20, mp: 10</t>
-  </si>
-  <si>
-    <t>attack: 40, defense: 40, hp: 40, mp: 30</t>
-  </si>
-  <si>
-    <t>attack: 50, defense: 50, hp: 50, mp: 40</t>
-  </si>
-  <si>
-    <t>attack: 60, defense: 60, hp: 60, mp: 50</t>
-  </si>
-  <si>
-    <t>attack: 90, defense: 90, hp: 90, mp: 80</t>
-  </si>
-  <si>
-    <t>attack: 100, defense: 100, hp: 100, mp: 100</t>
-  </si>
-  <si>
-    <t>attack: 30, defense: 30, hp: 30, mp: 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack: 70, defense: 70, hp: 70, mp: 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack: 80, defense: 80, hp: 80, mp: 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>attack: 10, defense: 10, hp: 10,mp: 0, headIcon: 'headIcon1'</t>
+  </si>
+  <si>
+    <t>attack: 20, defense: 20, hp: 20, mp: 10.5, headIcon: 'headIcon1'</t>
+  </si>
+  <si>
+    <t>attack: 30, defense: 30, hp: 30, mp: 0, headIcon: 'headIcon1'</t>
+  </si>
+  <si>
+    <t>attack: 40, defense: 40, hp: 40, mp: 30, headIcon: 'headIcon1'</t>
+  </si>
+  <si>
+    <t>attack: 50, defense: 50, hp: 50, mp: 40, headIcon: 'headIcon1'</t>
+  </si>
+  <si>
+    <t>attack: 60, defense: 60, hp: 60, mp: 50, headIcon: 'headIcon1'</t>
+  </si>
+  <si>
+    <t>attack: 70, defense: 70, hp: 70, mp: 0, headIcon: 'headIcon1'</t>
+  </si>
+  <si>
+    <t>attack: 80, defense: 80, hp: 80, mp: 0, headIcon: 'headIcon1'</t>
+  </si>
+  <si>
+    <t>attack: 90, defense: 90, hp: 90, mp: 80, headIcon: 'headIcon1'</t>
+  </si>
+  <si>
+    <t>attack: 100, defense: 100, hp: 100, mp: 100.7, headIcon: 'headIcon1'</t>
+  </si>
+  <si>
+    <t>怪在不同的阵营的颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene1: 'red1', scene2: 'blue1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene1: 'red1', scene2: 'blue2'</t>
+  </si>
+  <si>
+    <t>scene1: 'red1', scene2: 'blue3'</t>
+  </si>
+  <si>
+    <t>scene1: 'red1', scene2: 'blue4'</t>
+  </si>
+  <si>
+    <t>scene1: 'red3', scene2: 'blue3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene1: 'red2', scene2: 'blue2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene1: 'red2', scene2: 'blue3'</t>
+  </si>
+  <si>
+    <t>scene1: 'red2', scene2: 'blue4'</t>
+  </si>
+  <si>
+    <t>scene1: 'red3', scene2: 'blue4'</t>
+  </si>
+  <si>
+    <t>scene1: 'red3', scene2: 'blue5'</t>
   </si>
 </sst>
 </file>
@@ -1198,23 +1236,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8440857E-F793-A44B-977D-AE3579A9802B}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="30.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,8 +1269,11 @@
       <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,8 +1289,11 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1264,8 +1309,11 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1281,8 +1329,11 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1298,8 +1349,11 @@
       <c r="E5" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +1361,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>49</v>
@@ -1315,8 +1369,11 @@
       <c r="E6" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1324,7 +1381,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>50</v>
@@ -1332,8 +1389,11 @@
       <c r="E7" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1341,7 +1401,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>51</v>
@@ -1349,8 +1409,11 @@
       <c r="E8" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,7 +1421,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>52</v>
@@ -1366,8 +1429,11 @@
       <c r="E9" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1375,7 +1441,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>53</v>
@@ -1383,8 +1449,11 @@
       <c r="E10" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1392,7 +1461,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>54</v>
@@ -1400,8 +1469,11 @@
       <c r="E11" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1409,7 +1481,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
@@ -1417,8 +1489,11 @@
       <c r="E12" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1426,13 +1501,16 @@
         <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
